--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.nogueira\Documents\UiPath\prj_UIAcademy_GenerateYearlyReportForVendor_DISP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D152C5-C063-48C8-8C21-1AA374D9DDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91730D7D-CE35-4D44-B56A-F83AC19E7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2985" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>GYRFV</t>
   </si>
   <si>
-    <t>prj_UIAcademy_CalculateClientSecurityHash</t>
-  </si>
-  <si>
     <t>in_System1URL</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>prj_UIAcademy_GenerateYearlyReportForVendor_DISP</t>
   </si>
 </sst>
 </file>
@@ -555,14 +555,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -603,7 +601,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>42</v>
@@ -629,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -637,10 +635,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2859,10 +2857,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -2870,10 +2868,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
